--- a/Data/EC/NIT-9016747079.xlsx
+++ b/Data/EC/NIT-9016747079.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EAB2783-62AA-4007-8591-06E877716EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0514E80-D744-459D-B862-63E64371FC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22D03F11-17DA-4D13-BFB9-7CE30D731A6E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB97870B-C761-468A-BCF6-EE2404430254}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,133 +65,160 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047484392</t>
+  </si>
+  <si>
+    <t>YORVIS JULIO ZAPATA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1143372659</t>
+  </si>
+  <si>
+    <t>MARIA ANGELICA DEL CARMEN BARBOZA PACHECO</t>
+  </si>
+  <si>
+    <t>19835299</t>
+  </si>
+  <si>
+    <t>EDUARD ALEXANDER MONTES SALCEDO</t>
+  </si>
+  <si>
+    <t>1052731048</t>
+  </si>
+  <si>
+    <t>IGNACIO CASTRO GARCIA</t>
+  </si>
+  <si>
+    <t>73191484</t>
+  </si>
+  <si>
+    <t>ROYMAN CUESTA DE AVILA</t>
+  </si>
+  <si>
+    <t>1128060559</t>
+  </si>
+  <si>
+    <t>HERNAN ENRIQUE CASTRO GOMEZ</t>
+  </si>
+  <si>
+    <t>1047511920</t>
+  </si>
+  <si>
+    <t>CRISTIAN CAMILO MEZA JULIO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5931389</t>
+  </si>
+  <si>
+    <t>KEVIN SANTIAGO SOTELDO BRACHO</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>3026680</t>
+  </si>
+  <si>
+    <t>GISEL ANDREINA AMAYA DAVALILLO</t>
+  </si>
+  <si>
+    <t>1049536678</t>
+  </si>
+  <si>
+    <t>YARINA JOSE RIZCALA GANEM</t>
+  </si>
+  <si>
+    <t>1044932963</t>
+  </si>
+  <si>
+    <t>CARLOS ALEJANDRO URZOLA IRIARTE</t>
+  </si>
+  <si>
     <t>1047405884</t>
   </si>
   <si>
     <t>RONALD ENRIQUE AMADOR PADILLA</t>
   </si>
   <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>3026680</t>
-  </si>
-  <si>
-    <t>GISEL ANDREINA AMAYA DAVALILLO</t>
-  </si>
-  <si>
-    <t>2505</t>
+    <t>1250030</t>
+  </si>
+  <si>
+    <t>JOSE GREGORIO CRESPO TORO</t>
+  </si>
+  <si>
+    <t>1047496693</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO MONROY MIRANDA</t>
+  </si>
+  <si>
+    <t>5497128</t>
+  </si>
+  <si>
+    <t>JUAN ELIEZER ANDRADE PERDOMO</t>
+  </si>
+  <si>
+    <t>1193569392</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS ORTIZ ANILLO</t>
+  </si>
+  <si>
+    <t>1002249823</t>
+  </si>
+  <si>
+    <t>GEYMER DAVID BALLESTERO CASTELLANO</t>
+  </si>
+  <si>
+    <t>1224260</t>
+  </si>
+  <si>
+    <t>EUDRID ALEXANDER PEÃ?A ROCA</t>
+  </si>
+  <si>
+    <t>1043294942</t>
+  </si>
+  <si>
+    <t>BRAYAN ROJANO OVIEDO</t>
+  </si>
+  <si>
+    <t>1143339787</t>
+  </si>
+  <si>
+    <t>KEINER ANDRES SILVA MEZA</t>
+  </si>
+  <si>
+    <t>1041971571</t>
+  </si>
+  <si>
+    <t>DAVID ISMAEL CARDENAS CARRILLO</t>
   </si>
   <si>
     <t>4907692</t>
   </si>
   <si>
     <t>HERNANDEZ COLINA ELAN DARIO</t>
-  </si>
-  <si>
-    <t>1143372659</t>
-  </si>
-  <si>
-    <t>MARIA ANGELICA DEL CARMEN BARBOZA PACHECO</t>
-  </si>
-  <si>
-    <t>1224260</t>
-  </si>
-  <si>
-    <t>EUDRID ALEXANDER PEÃ?A ROCA</t>
-  </si>
-  <si>
-    <t>1047496693</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO MONROY MIRANDA</t>
-  </si>
-  <si>
-    <t>1193569392</t>
-  </si>
-  <si>
-    <t>JEAN CARLOS ORTIZ ANILLO</t>
-  </si>
-  <si>
-    <t>1143339787</t>
-  </si>
-  <si>
-    <t>KEINER ANDRES SILVA MEZA</t>
-  </si>
-  <si>
-    <t>1049536678</t>
-  </si>
-  <si>
-    <t>YARINA JOSE RIZCALA GANEM</t>
-  </si>
-  <si>
-    <t>1128060559</t>
-  </si>
-  <si>
-    <t>HERNAN ENRIQUE CASTRO GOMEZ</t>
-  </si>
-  <si>
-    <t>1044932963</t>
-  </si>
-  <si>
-    <t>CARLOS ALEJANDRO URZOLA IRIARTE</t>
-  </si>
-  <si>
-    <t>19835299</t>
-  </si>
-  <si>
-    <t>EDUARD ALEXANDER MONTES SALCEDO</t>
-  </si>
-  <si>
-    <t>1052731048</t>
-  </si>
-  <si>
-    <t>IGNACIO CASTRO GARCIA</t>
-  </si>
-  <si>
-    <t>1002249823</t>
-  </si>
-  <si>
-    <t>GEYMER DAVID BALLESTERO CASTELLANO</t>
-  </si>
-  <si>
-    <t>73191484</t>
-  </si>
-  <si>
-    <t>ROYMAN CUESTA DE AVILA</t>
-  </si>
-  <si>
-    <t>1047484392</t>
-  </si>
-  <si>
-    <t>YORVIS JULIO ZAPATA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1143342407</t>
-  </si>
-  <si>
-    <t>WENDY MORALES GARCIA</t>
-  </si>
-  <si>
-    <t>1041971571</t>
-  </si>
-  <si>
-    <t>DAVID ISMAEL CARDENAS CARRILLO</t>
-  </si>
-  <si>
-    <t>1043294942</t>
-  </si>
-  <si>
-    <t>BRAYAN ROJANO OVIEDO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -605,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE37515-C17B-1945-7A8B-FDC2E22B33FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73BCE37-1052-B332-3E23-FEB2457B846C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,8 +983,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC85929-42C6-4274-AC46-A3ABEE92E53F}">
-  <dimension ref="B2:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C8E767-EDE1-4070-A37C-200487FF1DE4}">
+  <dimension ref="B2:J87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -981,7 +1008,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1026,7 +1053,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1058,12 +1085,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2274769</v>
+        <v>4337803</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1074,17 +1101,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1111,13 +1138,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1134,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>64940</v>
+        <v>92000</v>
       </c>
       <c r="G16" s="18">
-        <v>1623500</v>
+        <v>2000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,10 +1184,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>64940</v>
+        <v>92000</v>
       </c>
       <c r="G17" s="18">
-        <v>1623500</v>
+        <v>2000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1168,22 +1195,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="18">
-        <v>34421</v>
+        <v>92000</v>
       </c>
       <c r="G18" s="18">
-        <v>1613500</v>
+        <v>2000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1191,22 +1218,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>64540</v>
+        <v>88000</v>
       </c>
       <c r="G19" s="18">
-        <v>1613500</v>
+        <v>2200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1217,13 +1244,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" s="18">
         <v>88000</v>
@@ -1237,22 +1264,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="18">
-        <v>64540</v>
+        <v>88000</v>
       </c>
       <c r="G21" s="18">
-        <v>1613500</v>
+        <v>2200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1263,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>64540</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>1613500</v>
+        <v>1091474</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1286,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>62800</v>
+        <v>56940</v>
       </c>
       <c r="G23" s="18">
-        <v>1570000</v>
+        <v>1091474</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1309,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
-        <v>64940</v>
+        <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>1623500</v>
+        <v>1091474</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1332,19 +1359,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>64540</v>
       </c>
       <c r="G25" s="18">
-        <v>1613500</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1355,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F26" s="18">
-        <v>64520</v>
+        <v>64540</v>
       </c>
       <c r="G26" s="18">
-        <v>1613000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1378,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F27" s="18">
         <v>64540</v>
       </c>
       <c r="G27" s="18">
-        <v>1613500</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1401,19 +1428,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" s="18">
         <v>64540</v>
       </c>
       <c r="G28" s="18">
-        <v>1613500</v>
+        <v>1320000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1424,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F29" s="18">
-        <v>56940</v>
+        <v>64540</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>1320000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1447,13 +1474,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>64540</v>
@@ -1470,16 +1497,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
-        <v>25808</v>
+        <v>64540</v>
       </c>
       <c r="G31" s="18">
         <v>1613500</v>
@@ -1493,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>64540</v>
@@ -1516,19 +1543,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>92000</v>
+        <v>71600</v>
       </c>
       <c r="G33" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1539,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F34" s="18">
-        <v>64540</v>
+        <v>71600</v>
       </c>
       <c r="G34" s="18">
-        <v>1613500</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F35" s="18">
-        <v>64540</v>
+        <v>71600</v>
       </c>
       <c r="G35" s="18">
-        <v>1613500</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1585,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>56940</v>
+        <v>56000</v>
       </c>
       <c r="G36" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1608,19 +1635,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
-        <v>62800</v>
+        <v>56000</v>
       </c>
       <c r="G37" s="18">
-        <v>1570000</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1631,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>64540</v>
+        <v>56000</v>
       </c>
       <c r="G38" s="18">
-        <v>1613500</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1651,22 +1678,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>64540</v>
+        <v>59600</v>
       </c>
       <c r="G39" s="18">
-        <v>1613500</v>
+        <v>1490000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1674,22 +1701,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F40" s="18">
-        <v>64540</v>
+        <v>59600</v>
       </c>
       <c r="G40" s="18">
-        <v>1613500</v>
+        <v>1490000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1697,22 +1724,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F41" s="18">
-        <v>64540</v>
+        <v>59600</v>
       </c>
       <c r="G41" s="18">
-        <v>1613500</v>
+        <v>1490000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1720,22 +1747,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F42" s="18">
-        <v>64940</v>
+        <v>59600</v>
       </c>
       <c r="G42" s="18">
-        <v>1623500</v>
+        <v>1490000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1743,22 +1770,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>64540</v>
+        <v>59600</v>
       </c>
       <c r="G43" s="18">
-        <v>1613500</v>
+        <v>1490000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1766,22 +1793,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>92000</v>
+        <v>59600</v>
       </c>
       <c r="G44" s="18">
-        <v>2300000</v>
+        <v>1490000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1789,22 +1816,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F45" s="18">
-        <v>64520</v>
+        <v>34421</v>
       </c>
       <c r="G45" s="18">
-        <v>1613000</v>
+        <v>1613500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1815,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>64540</v>
+        <v>58068</v>
       </c>
       <c r="G46" s="18">
-        <v>1613500</v>
+        <v>1613000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1835,22 +1862,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F47" s="18">
-        <v>64540</v>
+        <v>64520</v>
       </c>
       <c r="G47" s="18">
-        <v>1613500</v>
+        <v>1613000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1861,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F48" s="18">
-        <v>64540</v>
+        <v>64520</v>
       </c>
       <c r="G48" s="18">
-        <v>1613500</v>
+        <v>1613000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1884,75 +1911,788 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
-        <v>88000</v>
+        <v>64540</v>
       </c>
       <c r="G49" s="18">
-        <v>2200000</v>
+        <v>1613500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="22" t="s">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="18">
+        <v>64940</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1623500</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="18">
+        <v>92000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="18">
+        <v>92000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="18">
+        <v>92000</v>
+      </c>
+      <c r="G58" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="24">
+      <c r="D62" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="18">
         <v>64540</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G62" s="18">
         <v>1613500</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="18">
+        <v>62800</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1570000</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="18">
+        <v>62800</v>
+      </c>
+      <c r="G66" s="18">
+        <v>1570000</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="18">
+        <v>62800</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1570000</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="18">
+        <v>25808</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="E79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="18">
+        <v>43026</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="18">
+        <v>64540</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1613500</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="24">
+        <v>64540</v>
+      </c>
+      <c r="G81" s="24">
+        <v>1613500</v>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="26"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="H86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="H87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H86:J86"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016747079.xlsx
+++ b/Data/EC/NIT-9016747079.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0514E80-D744-459D-B862-63E64371FC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63E7A5B-7645-4FB0-B67E-787ADE2CC6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB97870B-C761-468A-BCF6-EE2404430254}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D7DC0EB-D978-4D08-B972-3C83486E72C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,160 +65,127 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047405884</t>
+  </si>
+  <si>
+    <t>RONALD ENRIQUE AMADOR PADILLA</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
     <t>1047484392</t>
   </si>
   <si>
     <t>YORVIS JULIO ZAPATA</t>
   </si>
   <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1143372659</t>
+  </si>
+  <si>
+    <t>MARIA ANGELICA DEL CARMEN BARBOZA PACHECO</t>
+  </si>
+  <si>
+    <t>1052731048</t>
+  </si>
+  <si>
+    <t>IGNACIO CASTRO GARCIA</t>
+  </si>
+  <si>
+    <t>73191484</t>
+  </si>
+  <si>
+    <t>ROYMAN CUESTA DE AVILA</t>
+  </si>
+  <si>
+    <t>1128060559</t>
+  </si>
+  <si>
+    <t>HERNAN ENRIQUE CASTRO GOMEZ</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>3026680</t>
+  </si>
+  <si>
+    <t>GISEL ANDREINA AMAYA DAVALILLO</t>
+  </si>
+  <si>
+    <t>1049536678</t>
+  </si>
+  <si>
+    <t>YARINA JOSE RIZCALA GANEM</t>
+  </si>
+  <si>
+    <t>1044932963</t>
+  </si>
+  <si>
+    <t>CARLOS ALEJANDRO URZOLA IRIARTE</t>
+  </si>
+  <si>
+    <t>1047496693</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO MONROY MIRANDA</t>
+  </si>
+  <si>
+    <t>1193569392</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS ORTIZ ANILLO</t>
+  </si>
+  <si>
+    <t>1002249823</t>
+  </si>
+  <si>
+    <t>GEYMER DAVID BALLESTERO CASTELLANO</t>
+  </si>
+  <si>
+    <t>1224260</t>
+  </si>
+  <si>
+    <t>EUDRID ALEXANDER PEÃ?A ROCA</t>
+  </si>
+  <si>
+    <t>1143339787</t>
+  </si>
+  <si>
+    <t>KEINER ANDRES SILVA MEZA</t>
+  </si>
+  <si>
+    <t>4907692</t>
+  </si>
+  <si>
+    <t>HERNANDEZ COLINA ELAN DARIO</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>1043294942</t>
+  </si>
+  <si>
+    <t>BRAYAN ROJANO OVIEDO</t>
+  </si>
+  <si>
+    <t>1041971571</t>
+  </si>
+  <si>
+    <t>DAVID ISMAEL CARDENAS CARRILLO</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1143372659</t>
-  </si>
-  <si>
-    <t>MARIA ANGELICA DEL CARMEN BARBOZA PACHECO</t>
-  </si>
-  <si>
-    <t>19835299</t>
-  </si>
-  <si>
-    <t>EDUARD ALEXANDER MONTES SALCEDO</t>
-  </si>
-  <si>
-    <t>1052731048</t>
-  </si>
-  <si>
-    <t>IGNACIO CASTRO GARCIA</t>
-  </si>
-  <si>
-    <t>73191484</t>
-  </si>
-  <si>
-    <t>ROYMAN CUESTA DE AVILA</t>
-  </si>
-  <si>
-    <t>1128060559</t>
-  </si>
-  <si>
-    <t>HERNAN ENRIQUE CASTRO GOMEZ</t>
-  </si>
-  <si>
-    <t>1047511920</t>
-  </si>
-  <si>
-    <t>CRISTIAN CAMILO MEZA JULIO</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>5931389</t>
-  </si>
-  <si>
-    <t>KEVIN SANTIAGO SOTELDO BRACHO</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>3026680</t>
-  </si>
-  <si>
-    <t>GISEL ANDREINA AMAYA DAVALILLO</t>
-  </si>
-  <si>
-    <t>1049536678</t>
-  </si>
-  <si>
-    <t>YARINA JOSE RIZCALA GANEM</t>
-  </si>
-  <si>
-    <t>1044932963</t>
-  </si>
-  <si>
-    <t>CARLOS ALEJANDRO URZOLA IRIARTE</t>
-  </si>
-  <si>
-    <t>1047405884</t>
-  </si>
-  <si>
-    <t>RONALD ENRIQUE AMADOR PADILLA</t>
-  </si>
-  <si>
-    <t>1250030</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO CRESPO TORO</t>
-  </si>
-  <si>
-    <t>1047496693</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO MONROY MIRANDA</t>
-  </si>
-  <si>
-    <t>5497128</t>
-  </si>
-  <si>
-    <t>JUAN ELIEZER ANDRADE PERDOMO</t>
-  </si>
-  <si>
-    <t>1193569392</t>
-  </si>
-  <si>
-    <t>JEAN CARLOS ORTIZ ANILLO</t>
-  </si>
-  <si>
-    <t>1002249823</t>
-  </si>
-  <si>
-    <t>GEYMER DAVID BALLESTERO CASTELLANO</t>
-  </si>
-  <si>
-    <t>1224260</t>
-  </si>
-  <si>
-    <t>EUDRID ALEXANDER PEÃ?A ROCA</t>
-  </si>
-  <si>
-    <t>1043294942</t>
-  </si>
-  <si>
-    <t>BRAYAN ROJANO OVIEDO</t>
-  </si>
-  <si>
-    <t>1143339787</t>
-  </si>
-  <si>
-    <t>KEINER ANDRES SILVA MEZA</t>
-  </si>
-  <si>
-    <t>1041971571</t>
-  </si>
-  <si>
-    <t>DAVID ISMAEL CARDENAS CARRILLO</t>
-  </si>
-  <si>
-    <t>4907692</t>
-  </si>
-  <si>
-    <t>HERNANDEZ COLINA ELAN DARIO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -317,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73BCE37-1052-B332-3E23-FEB2457B846C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67D44C0-DE64-2434-D4F8-36C948A81DAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C8E767-EDE1-4070-A37C-200487FF1DE4}">
-  <dimension ref="B2:J87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD0E34C-0477-4EF6-9B70-57C4A69FB58B}">
+  <dimension ref="B2:J76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1008,7 +975,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1053,7 +1020,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1085,12 +1052,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4337803</v>
+        <v>3624483</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1101,17 +1068,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1138,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1161,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>92000</v>
+        <v>64940</v>
       </c>
       <c r="G16" s="18">
-        <v>2000000</v>
+        <v>1623500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1184,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>92000</v>
+        <v>64940</v>
       </c>
       <c r="G17" s="18">
-        <v>2000000</v>
+        <v>1623500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1198,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>92000</v>
       </c>
       <c r="G18" s="18">
-        <v>2000000</v>
+        <v>2300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1221,13 +1188,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>88000</v>
@@ -1244,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" s="18">
-        <v>88000</v>
+        <v>64540</v>
       </c>
       <c r="G20" s="18">
-        <v>2200000</v>
+        <v>1613500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1267,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="18">
-        <v>88000</v>
+        <v>64540</v>
       </c>
       <c r="G21" s="18">
-        <v>2200000</v>
+        <v>1613500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1290,19 +1257,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F22" s="18">
-        <v>56940</v>
+        <v>64540</v>
       </c>
       <c r="G22" s="18">
-        <v>1091474</v>
+        <v>1613500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1310,22 +1277,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F23" s="18">
-        <v>56940</v>
+        <v>34421</v>
       </c>
       <c r="G23" s="18">
-        <v>1091474</v>
+        <v>1613500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1336,19 +1303,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" s="18">
-        <v>56940</v>
+        <v>64520</v>
       </c>
       <c r="G24" s="18">
-        <v>1091474</v>
+        <v>1613000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1359,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F25" s="18">
         <v>64540</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1613500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1382,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
-        <v>64540</v>
+        <v>64940</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1623500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1405,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>64540</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1613500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1428,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F28" s="18">
-        <v>64540</v>
+        <v>62800</v>
       </c>
       <c r="G28" s="18">
-        <v>1320000</v>
+        <v>1570000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1451,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" s="18">
-        <v>64540</v>
+        <v>25808</v>
       </c>
       <c r="G29" s="18">
-        <v>1320000</v>
+        <v>1613500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1471,16 +1438,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F30" s="18">
         <v>64540</v>
@@ -1497,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F31" s="18">
         <v>64540</v>
@@ -1517,16 +1484,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
         <v>64540</v>
@@ -1543,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F33" s="18">
-        <v>71600</v>
+        <v>92000</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1566,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F34" s="18">
-        <v>71600</v>
+        <v>88000</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>2200000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1589,19 +1556,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F35" s="18">
-        <v>71600</v>
+        <v>64540</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>1613500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1612,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F36" s="18">
-        <v>56000</v>
+        <v>64540</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1613500</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1635,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F37" s="18">
-        <v>56000</v>
+        <v>64540</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>1613500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1658,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F38" s="18">
-        <v>56000</v>
+        <v>64520</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>1613000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1678,22 +1645,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="D39" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F39" s="18">
-        <v>59600</v>
+        <v>64540</v>
       </c>
       <c r="G39" s="18">
-        <v>1490000</v>
+        <v>1613500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1701,22 +1668,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F40" s="18">
-        <v>59600</v>
+        <v>64940</v>
       </c>
       <c r="G40" s="18">
-        <v>1490000</v>
+        <v>1623500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1724,22 +1691,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F41" s="18">
-        <v>59600</v>
+        <v>64540</v>
       </c>
       <c r="G41" s="18">
-        <v>1490000</v>
+        <v>1613500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1747,22 +1714,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
-        <v>59600</v>
+        <v>62800</v>
       </c>
       <c r="G42" s="18">
-        <v>1490000</v>
+        <v>1570000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1770,22 +1737,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F43" s="18">
-        <v>59600</v>
+        <v>64540</v>
       </c>
       <c r="G43" s="18">
-        <v>1490000</v>
+        <v>1613500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1793,22 +1760,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>59600</v>
+        <v>64540</v>
       </c>
       <c r="G44" s="18">
-        <v>1490000</v>
+        <v>1613500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1816,19 +1783,19 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
-        <v>34421</v>
+        <v>64540</v>
       </c>
       <c r="G45" s="18">
         <v>1613500</v>
@@ -1842,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>58068</v>
+        <v>64540</v>
       </c>
       <c r="G46" s="18">
-        <v>1613000</v>
+        <v>1613500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1862,22 +1829,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
-        <v>64520</v>
+        <v>64540</v>
       </c>
       <c r="G47" s="18">
-        <v>1613000</v>
+        <v>1613500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1888,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18">
-        <v>64520</v>
+        <v>92000</v>
       </c>
       <c r="G48" s="18">
-        <v>1613000</v>
+        <v>2300000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1911,19 +1878,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
-        <v>64540</v>
+        <v>88000</v>
       </c>
       <c r="G49" s="18">
-        <v>1613500</v>
+        <v>2200000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1934,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>64540</v>
@@ -1957,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>64940</v>
+        <v>64540</v>
       </c>
       <c r="G51" s="18">
-        <v>1623500</v>
+        <v>1613500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1980,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
-        <v>64940</v>
+        <v>58068</v>
       </c>
       <c r="G52" s="18">
-        <v>1623500</v>
+        <v>1613000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2003,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>64940</v>
@@ -2026,19 +1993,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F54" s="18">
-        <v>64940</v>
+        <v>64540</v>
       </c>
       <c r="G54" s="18">
-        <v>1623500</v>
+        <v>1613500</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2049,19 +2016,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F55" s="18">
-        <v>64940</v>
+        <v>62800</v>
       </c>
       <c r="G55" s="18">
-        <v>1623500</v>
+        <v>1570000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2069,22 +2036,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F56" s="18">
-        <v>92000</v>
+        <v>64540</v>
       </c>
       <c r="G56" s="18">
-        <v>2000000</v>
+        <v>1613500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2092,22 +2059,22 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
-        <v>92000</v>
+        <v>64540</v>
       </c>
       <c r="G57" s="18">
-        <v>2000000</v>
+        <v>1613500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2115,22 +2082,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
-        <v>92000</v>
+        <v>64540</v>
       </c>
       <c r="G58" s="18">
-        <v>2000000</v>
+        <v>1613500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2141,13 +2108,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F59" s="18">
         <v>64540</v>
@@ -2161,19 +2128,19 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F60" s="18">
-        <v>64540</v>
+        <v>43026</v>
       </c>
       <c r="G60" s="18">
         <v>1613500</v>
@@ -2187,19 +2154,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F61" s="18">
-        <v>64540</v>
+        <v>88000</v>
       </c>
       <c r="G61" s="18">
-        <v>1613500</v>
+        <v>2200000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2207,16 +2174,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F62" s="18">
         <v>64540</v>
@@ -2230,16 +2197,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F63" s="18">
         <v>64540</v>
@@ -2253,22 +2220,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
-        <v>64540</v>
+        <v>64940</v>
       </c>
       <c r="G64" s="18">
-        <v>1613500</v>
+        <v>1623500</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2279,19 +2246,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F65" s="18">
-        <v>62800</v>
+        <v>64540</v>
       </c>
       <c r="G65" s="18">
-        <v>1570000</v>
+        <v>1613500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2302,13 +2269,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F66" s="18">
         <v>62800</v>
@@ -2322,22 +2289,22 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F67" s="18">
-        <v>62800</v>
+        <v>64540</v>
       </c>
       <c r="G67" s="18">
-        <v>1570000</v>
+        <v>1613500</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2348,16 +2315,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F68" s="18">
-        <v>25808</v>
+        <v>64540</v>
       </c>
       <c r="G68" s="18">
         <v>1613500</v>
@@ -2368,16 +2335,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F69" s="18">
         <v>64540</v>
@@ -2390,309 +2357,56 @@
       <c r="J69" s="20"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="B70" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="24">
+        <v>64540</v>
+      </c>
+      <c r="G70" s="24">
+        <v>1613500</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="B75" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="32"/>
+      <c r="H75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="17" t="s">
+      <c r="B76" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="17" t="s">
+      <c r="C76" s="32"/>
+      <c r="H76" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="18">
-        <v>43026</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="18">
-        <v>64540</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1613500</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="24">
-        <v>64540</v>
-      </c>
-      <c r="G81" s="24">
-        <v>1613500</v>
-      </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="26"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="H86" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="32"/>
-      <c r="H87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H75:J75"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
